--- a/natmiOut/OldD7/LR-pairs_lrc2p/Bgn-Tlr4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Bgn-Tlr4.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>54.4741642283065</v>
+        <v>66.27558733333333</v>
       </c>
       <c r="H2">
-        <v>54.4741642283065</v>
+        <v>198.826762</v>
       </c>
       <c r="I2">
-        <v>0.01313911259974995</v>
+        <v>0.01593739484152995</v>
       </c>
       <c r="J2">
-        <v>0.01313911259974995</v>
+        <v>0.01593739484152995</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.84419742399134</v>
+        <v>8.714516333333334</v>
       </c>
       <c r="N2">
-        <v>7.84419742399134</v>
+        <v>26.143549</v>
       </c>
       <c r="O2">
-        <v>0.1749951953901328</v>
+        <v>0.1832255053237971</v>
       </c>
       <c r="P2">
-        <v>0.1749951953901328</v>
+        <v>0.1832255053237971</v>
       </c>
       <c r="Q2">
-        <v>427.306098713763</v>
+        <v>577.5596883175932</v>
       </c>
       <c r="R2">
-        <v>427.306098713763</v>
+        <v>5198.037194858338</v>
       </c>
       <c r="S2">
-        <v>0.002299281576646199</v>
+        <v>0.002920137223384201</v>
       </c>
       <c r="T2">
-        <v>0.002299281576646199</v>
+        <v>0.002920137223384201</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>54.4741642283065</v>
+        <v>66.27558733333333</v>
       </c>
       <c r="H3">
-        <v>54.4741642283065</v>
+        <v>198.826762</v>
       </c>
       <c r="I3">
-        <v>0.01313911259974995</v>
+        <v>0.01593739484152995</v>
       </c>
       <c r="J3">
-        <v>0.01313911259974995</v>
+        <v>0.01593739484152995</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.4149132051113</v>
+        <v>16.48752133333333</v>
       </c>
       <c r="N3">
-        <v>16.4149132051113</v>
+        <v>49.462564</v>
       </c>
       <c r="O3">
-        <v>0.3661981957331846</v>
+        <v>0.3466554324170239</v>
       </c>
       <c r="P3">
-        <v>0.3661981957331846</v>
+        <v>0.346655432417024</v>
       </c>
       <c r="Q3">
-        <v>894.18867772863</v>
+        <v>1092.72016003753</v>
       </c>
       <c r="R3">
-        <v>894.18867772863</v>
+        <v>9834.481440337768</v>
       </c>
       <c r="S3">
-        <v>0.004811519327563585</v>
+        <v>0.00552478450039141</v>
       </c>
       <c r="T3">
-        <v>0.004811519327563585</v>
+        <v>0.005524784500391411</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>54.4741642283065</v>
+        <v>66.27558733333333</v>
       </c>
       <c r="H4">
-        <v>54.4741642283065</v>
+        <v>198.826762</v>
       </c>
       <c r="I4">
-        <v>0.01313911259974995</v>
+        <v>0.01593739484152995</v>
       </c>
       <c r="J4">
-        <v>0.01313911259974995</v>
+        <v>0.01593739484152995</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.3607316076522</v>
+        <v>18.62376966666666</v>
       </c>
       <c r="N4">
-        <v>17.3607316076522</v>
+        <v>55.871309</v>
       </c>
       <c r="O4">
-        <v>0.3872983373040745</v>
+        <v>0.391570739865005</v>
       </c>
       <c r="P4">
-        <v>0.3872983373040745</v>
+        <v>0.391570739865005</v>
       </c>
       <c r="Q4">
-        <v>945.7113447187974</v>
+        <v>1234.301273019051</v>
       </c>
       <c r="R4">
-        <v>945.7113447187974</v>
+        <v>11108.71145717146</v>
       </c>
       <c r="S4">
-        <v>0.005088756463534174</v>
+        <v>0.006240617489618595</v>
       </c>
       <c r="T4">
-        <v>0.005088756463534174</v>
+        <v>0.006240617489618595</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>54.4741642283065</v>
+        <v>66.27558733333333</v>
       </c>
       <c r="H5">
-        <v>54.4741642283065</v>
+        <v>198.826762</v>
       </c>
       <c r="I5">
-        <v>0.01313911259974995</v>
+        <v>0.01593739484152995</v>
       </c>
       <c r="J5">
-        <v>0.01313911259974995</v>
+        <v>0.01593739484152995</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.20537371562348</v>
+        <v>3.735891666666667</v>
       </c>
       <c r="N5">
-        <v>3.20537371562348</v>
+        <v>11.207675</v>
       </c>
       <c r="O5">
-        <v>0.07150827157260825</v>
+        <v>0.07854832239417409</v>
       </c>
       <c r="P5">
-        <v>0.07150827157260825</v>
+        <v>0.0785483223941741</v>
       </c>
       <c r="Q5">
-        <v>174.6100541979704</v>
+        <v>247.5984144220389</v>
       </c>
       <c r="R5">
-        <v>174.6100541979704</v>
+        <v>2228.38572979835</v>
       </c>
       <c r="S5">
-        <v>0.0009395552320059985</v>
+        <v>0.001251855628135741</v>
       </c>
       <c r="T5">
-        <v>0.0009395552320059985</v>
+        <v>0.001251855628135742</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4010.83820253453</v>
+        <v>4010.868571</v>
       </c>
       <c r="H6">
-        <v>4010.83820253453</v>
+        <v>12032.605713</v>
       </c>
       <c r="I6">
-        <v>0.9674100651019425</v>
+        <v>0.9644998806575645</v>
       </c>
       <c r="J6">
-        <v>0.9674100651019425</v>
+        <v>0.9644998806575644</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.84419742399134</v>
+        <v>8.714516333333334</v>
       </c>
       <c r="N6">
-        <v>7.84419742399134</v>
+        <v>26.143549</v>
       </c>
       <c r="O6">
-        <v>0.1749951953901328</v>
+        <v>0.1832255053237971</v>
       </c>
       <c r="P6">
-        <v>0.1749951953901328</v>
+        <v>0.1832255053237971</v>
       </c>
       <c r="Q6">
-        <v>31461.80669636742</v>
+        <v>34952.77967283283</v>
       </c>
       <c r="R6">
-        <v>31461.80669636742</v>
+        <v>314575.0170554955</v>
       </c>
       <c r="S6">
-        <v>0.1692921133648955</v>
+        <v>0.1767209780182242</v>
       </c>
       <c r="T6">
-        <v>0.1692921133648955</v>
+        <v>0.1767209780182242</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4010.83820253453</v>
+        <v>4010.868571</v>
       </c>
       <c r="H7">
-        <v>4010.83820253453</v>
+        <v>12032.605713</v>
       </c>
       <c r="I7">
-        <v>0.9674100651019425</v>
+        <v>0.9644998806575645</v>
       </c>
       <c r="J7">
-        <v>0.9674100651019425</v>
+        <v>0.9644998806575644</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.4149132051113</v>
+        <v>16.48752133333333</v>
       </c>
       <c r="N7">
-        <v>16.4149132051113</v>
+        <v>49.462564</v>
       </c>
       <c r="O7">
-        <v>0.3661981957331846</v>
+        <v>0.3466554324170239</v>
       </c>
       <c r="P7">
-        <v>0.3661981957331846</v>
+        <v>0.346655432417024</v>
       </c>
       <c r="Q7">
-        <v>65837.56097434893</v>
+        <v>66129.28112955869</v>
       </c>
       <c r="R7">
-        <v>65837.56097434893</v>
+        <v>595163.5301660282</v>
       </c>
       <c r="S7">
-        <v>0.354263820374454</v>
+        <v>0.334349123195516</v>
       </c>
       <c r="T7">
-        <v>0.354263820374454</v>
+        <v>0.334349123195516</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4010.83820253453</v>
+        <v>4010.868571</v>
       </c>
       <c r="H8">
-        <v>4010.83820253453</v>
+        <v>12032.605713</v>
       </c>
       <c r="I8">
-        <v>0.9674100651019425</v>
+        <v>0.9644998806575645</v>
       </c>
       <c r="J8">
-        <v>0.9674100651019425</v>
+        <v>0.9644998806575644</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.3607316076522</v>
+        <v>18.62376966666666</v>
       </c>
       <c r="N8">
-        <v>17.3607316076522</v>
+        <v>55.871309</v>
       </c>
       <c r="O8">
-        <v>0.3872983373040745</v>
+        <v>0.391570739865005</v>
       </c>
       <c r="P8">
-        <v>0.3872983373040745</v>
+        <v>0.391570739865005</v>
       </c>
       <c r="Q8">
-        <v>69631.08555592014</v>
+        <v>74697.49242957648</v>
       </c>
       <c r="R8">
-        <v>69631.08555592014</v>
+        <v>672277.4318661883</v>
       </c>
       <c r="S8">
-        <v>0.3746763097052088</v>
+        <v>0.3776699318687916</v>
       </c>
       <c r="T8">
-        <v>0.3746763097052088</v>
+        <v>0.3776699318687915</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4010.83820253453</v>
+        <v>4010.868571</v>
       </c>
       <c r="H9">
-        <v>4010.83820253453</v>
+        <v>12032.605713</v>
       </c>
       <c r="I9">
-        <v>0.9674100651019425</v>
+        <v>0.9644998806575645</v>
       </c>
       <c r="J9">
-        <v>0.9674100651019425</v>
+        <v>0.9644998806575644</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.20537371562348</v>
+        <v>3.735891666666667</v>
       </c>
       <c r="N9">
-        <v>3.20537371562348</v>
+        <v>11.207675</v>
       </c>
       <c r="O9">
-        <v>0.07150827157260825</v>
+        <v>0.07854832239417409</v>
       </c>
       <c r="P9">
-        <v>0.07150827157260825</v>
+        <v>0.0785483223941741</v>
       </c>
       <c r="Q9">
-        <v>12856.23535202271</v>
+        <v>14984.17047049415</v>
       </c>
       <c r="R9">
-        <v>12856.23535202271</v>
+        <v>134857.5342344473</v>
       </c>
       <c r="S9">
-        <v>0.06917782165738433</v>
+        <v>0.0757598475750328</v>
       </c>
       <c r="T9">
-        <v>0.06917782165738433</v>
+        <v>0.07575984757503282</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.43845554901531</v>
+        <v>7.714644</v>
       </c>
       <c r="H10">
-        <v>7.43845554901531</v>
+        <v>23.143932</v>
       </c>
       <c r="I10">
-        <v>0.001794147857269208</v>
+        <v>0.001855152589919057</v>
       </c>
       <c r="J10">
-        <v>0.001794147857269208</v>
+        <v>0.001855152589919056</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.84419742399134</v>
+        <v>8.714516333333334</v>
       </c>
       <c r="N10">
-        <v>7.84419742399134</v>
+        <v>26.143549</v>
       </c>
       <c r="O10">
-        <v>0.1749951953901328</v>
+        <v>0.1832255053237971</v>
       </c>
       <c r="P10">
-        <v>0.1749951953901328</v>
+        <v>0.1832255053237971</v>
       </c>
       <c r="Q10">
-        <v>58.34871385605998</v>
+        <v>67.229391143852</v>
       </c>
       <c r="R10">
-        <v>58.34871385605998</v>
+        <v>605.064520294668</v>
       </c>
       <c r="S10">
-        <v>0.000313967254841613</v>
+        <v>0.00033991127074067</v>
       </c>
       <c r="T10">
-        <v>0.000313967254841613</v>
+        <v>0.00033991127074067</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.43845554901531</v>
+        <v>7.714644</v>
       </c>
       <c r="H11">
-        <v>7.43845554901531</v>
+        <v>23.143932</v>
       </c>
       <c r="I11">
-        <v>0.001794147857269208</v>
+        <v>0.001855152589919057</v>
       </c>
       <c r="J11">
-        <v>0.001794147857269208</v>
+        <v>0.001855152589919056</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.4149132051113</v>
+        <v>16.48752133333333</v>
       </c>
       <c r="N11">
-        <v>16.4149132051113</v>
+        <v>49.462564</v>
       </c>
       <c r="O11">
-        <v>0.3661981957331846</v>
+        <v>0.3466554324170239</v>
       </c>
       <c r="P11">
-        <v>0.3661981957331846</v>
+        <v>0.346655432417024</v>
       </c>
       <c r="Q11">
-        <v>122.1016022171648</v>
+        <v>127.195357529072</v>
       </c>
       <c r="R11">
-        <v>122.1016022171648</v>
+        <v>1144.758217761648</v>
       </c>
       <c r="S11">
-        <v>0.000657013708210543</v>
+        <v>0.0006430987232579524</v>
       </c>
       <c r="T11">
-        <v>0.000657013708210543</v>
+        <v>0.0006430987232579524</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.43845554901531</v>
+        <v>7.714644</v>
       </c>
       <c r="H12">
-        <v>7.43845554901531</v>
+        <v>23.143932</v>
       </c>
       <c r="I12">
-        <v>0.001794147857269208</v>
+        <v>0.001855152589919057</v>
       </c>
       <c r="J12">
-        <v>0.001794147857269208</v>
+        <v>0.001855152589919056</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.3607316076522</v>
+        <v>18.62376966666666</v>
       </c>
       <c r="N12">
-        <v>17.3607316076522</v>
+        <v>55.871309</v>
       </c>
       <c r="O12">
-        <v>0.3872983373040745</v>
+        <v>0.391570739865005</v>
       </c>
       <c r="P12">
-        <v>0.3872983373040745</v>
+        <v>0.391570739865005</v>
       </c>
       <c r="Q12">
-        <v>129.137030361906</v>
+        <v>143.675752916332</v>
       </c>
       <c r="R12">
-        <v>129.137030361906</v>
+        <v>1293.081776246988</v>
       </c>
       <c r="S12">
-        <v>0.0006948704819980321</v>
+        <v>0.0007264234721970852</v>
       </c>
       <c r="T12">
-        <v>0.0006948704819980321</v>
+        <v>0.0007264234721970851</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.43845554901531</v>
+        <v>7.714644</v>
       </c>
       <c r="H13">
-        <v>7.43845554901531</v>
+        <v>23.143932</v>
       </c>
       <c r="I13">
-        <v>0.001794147857269208</v>
+        <v>0.001855152589919057</v>
       </c>
       <c r="J13">
-        <v>0.001794147857269208</v>
+        <v>0.001855152589919056</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.20537371562348</v>
+        <v>3.735891666666667</v>
       </c>
       <c r="N13">
-        <v>3.20537371562348</v>
+        <v>11.207675</v>
       </c>
       <c r="O13">
-        <v>0.07150827157260825</v>
+        <v>0.07854832239417409</v>
       </c>
       <c r="P13">
-        <v>0.07150827157260825</v>
+        <v>0.0785483223941741</v>
       </c>
       <c r="Q13">
-        <v>23.8430299016473</v>
+        <v>28.8210742309</v>
       </c>
       <c r="R13">
-        <v>23.8430299016473</v>
+        <v>259.3896680781</v>
       </c>
       <c r="S13">
-        <v>0.0001282964122190197</v>
+        <v>0.0001457191237233491</v>
       </c>
       <c r="T13">
-        <v>0.0001282964122190197</v>
+        <v>0.0001457191237233491</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>73.20377049247359</v>
+        <v>73.63686100000001</v>
       </c>
       <c r="H14">
-        <v>73.20377049247359</v>
+        <v>220.910583</v>
       </c>
       <c r="I14">
-        <v>0.01765667444103833</v>
+        <v>0.01770757191098638</v>
       </c>
       <c r="J14">
-        <v>0.01765667444103833</v>
+        <v>0.01770757191098637</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.84419742399134</v>
+        <v>8.714516333333334</v>
       </c>
       <c r="N14">
-        <v>7.84419742399134</v>
+        <v>26.143549</v>
       </c>
       <c r="O14">
-        <v>0.1749951953901328</v>
+        <v>0.1832255053237971</v>
       </c>
       <c r="P14">
-        <v>0.1749951953901328</v>
+        <v>0.1832255053237971</v>
       </c>
       <c r="Q14">
-        <v>574.2248279235147</v>
+        <v>641.7096279198964</v>
       </c>
       <c r="R14">
-        <v>574.2248279235147</v>
+        <v>5775.386651279068</v>
       </c>
       <c r="S14">
-        <v>0.003089833193749466</v>
+        <v>0.003244478811447954</v>
       </c>
       <c r="T14">
-        <v>0.003089833193749466</v>
+        <v>0.003244478811447954</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>73.20377049247359</v>
+        <v>73.63686100000001</v>
       </c>
       <c r="H15">
-        <v>73.20377049247359</v>
+        <v>220.910583</v>
       </c>
       <c r="I15">
-        <v>0.01765667444103833</v>
+        <v>0.01770757191098638</v>
       </c>
       <c r="J15">
-        <v>0.01765667444103833</v>
+        <v>0.01770757191098637</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>16.4149132051113</v>
+        <v>16.48752133333333</v>
       </c>
       <c r="N15">
-        <v>16.4149132051113</v>
+        <v>49.462564</v>
       </c>
       <c r="O15">
-        <v>0.3661981957331846</v>
+        <v>0.3466554324170239</v>
       </c>
       <c r="P15">
-        <v>0.3661981957331846</v>
+        <v>0.346655432417024</v>
       </c>
       <c r="Q15">
-        <v>1201.633538920842</v>
+        <v>1214.089316657202</v>
       </c>
       <c r="R15">
-        <v>1201.633538920842</v>
+        <v>10926.80384991481</v>
       </c>
       <c r="S15">
-        <v>0.006465842322956471</v>
+        <v>0.00613842599785853</v>
       </c>
       <c r="T15">
-        <v>0.006465842322956471</v>
+        <v>0.006138425997858529</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>73.20377049247359</v>
+        <v>73.63686100000001</v>
       </c>
       <c r="H16">
-        <v>73.20377049247359</v>
+        <v>220.910583</v>
       </c>
       <c r="I16">
-        <v>0.01765667444103833</v>
+        <v>0.01770757191098638</v>
       </c>
       <c r="J16">
-        <v>0.01765667444103833</v>
+        <v>0.01770757191098637</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.3607316076522</v>
+        <v>18.62376966666666</v>
       </c>
       <c r="N16">
-        <v>17.3607316076522</v>
+        <v>55.871309</v>
       </c>
       <c r="O16">
-        <v>0.3872983373040745</v>
+        <v>0.391570739865005</v>
       </c>
       <c r="P16">
-        <v>0.3872983373040745</v>
+        <v>0.391570739865005</v>
       </c>
       <c r="Q16">
-        <v>1270.871012188004</v>
+        <v>1371.39593824035</v>
       </c>
       <c r="R16">
-        <v>1270.871012188004</v>
+        <v>12342.56344416315</v>
       </c>
       <c r="S16">
-        <v>0.006838400653333494</v>
+        <v>0.006933767034397716</v>
       </c>
       <c r="T16">
-        <v>0.006838400653333494</v>
+        <v>0.006933767034397714</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>73.20377049247359</v>
+        <v>73.63686100000001</v>
       </c>
       <c r="H17">
-        <v>73.20377049247359</v>
+        <v>220.910583</v>
       </c>
       <c r="I17">
-        <v>0.01765667444103833</v>
+        <v>0.01770757191098638</v>
       </c>
       <c r="J17">
-        <v>0.01765667444103833</v>
+        <v>0.01770757191098637</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.20537371562348</v>
+        <v>3.735891666666667</v>
       </c>
       <c r="N17">
-        <v>3.20537371562348</v>
+        <v>11.207675</v>
       </c>
       <c r="O17">
-        <v>0.07150827157260825</v>
+        <v>0.07854832239417409</v>
       </c>
       <c r="P17">
-        <v>0.07150827157260825</v>
+        <v>0.0785483223941741</v>
       </c>
       <c r="Q17">
-        <v>234.6454418211085</v>
+        <v>275.0993353693917</v>
       </c>
       <c r="R17">
-        <v>234.6454418211085</v>
+        <v>2475.894018324526</v>
       </c>
       <c r="S17">
-        <v>0.0012625982709989</v>
+        <v>0.001390900067282179</v>
       </c>
       <c r="T17">
-        <v>0.0012625982709989</v>
+        <v>0.001390900067282179</v>
       </c>
     </row>
   </sheetData>
